--- a/post_comment_count/Submissin_Count.xlsx
+++ b/post_comment_count/Submissin_Count.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\NDSU\MSCourses\pythonProject\post_comment_count\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2F42D9-E2E6-45F1-AB10-A28E14297887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Count" sheetId="1" r:id="rId1"/>
     <sheet name="Weekly Count" sheetId="2" r:id="rId2"/>
     <sheet name="Monthly Count" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -24,63 +30,6 @@
     <t>Submission Count</t>
   </si>
   <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>2021-02-02</t>
-  </si>
-  <si>
-    <t>2021-02-03</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>2021-02-07</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>2021-02-09</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>2021-02-11</t>
-  </si>
-  <si>
-    <t>2021-02-12</t>
-  </si>
-  <si>
-    <t>2021-02-13</t>
-  </si>
-  <si>
-    <t>2021-02-14</t>
-  </si>
-  <si>
-    <t>2021-02-15</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>2021-02-17</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>2021-02-19</t>
-  </si>
-  <si>
-    <t>2021-02-20</t>
-  </si>
-  <si>
-    <t>2021-02-21</t>
-  </si>
-  <si>
     <t>2021-02-22</t>
   </si>
   <si>
@@ -96,12 +45,6 @@
     <t>2021-02-26</t>
   </si>
   <si>
-    <t>2021-02-27</t>
-  </si>
-  <si>
-    <t>2021-02-28</t>
-  </si>
-  <si>
     <t>2021-03-02</t>
   </si>
   <si>
@@ -177,14 +120,14 @@
     <t>2021-03-21</t>
   </si>
   <si>
-    <t>2021-04-04</t>
+    <t>2021-04-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +190,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -293,7 +244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,9 +276,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,6 +328,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -534,14 +521,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -557,10 +544,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -568,10 +555,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -579,10 +566,10 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -590,10 +577,10 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -601,10 +588,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -612,10 +599,10 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -623,10 +610,10 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -634,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -645,10 +632,10 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -656,10 +643,10 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -667,10 +654,10 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -678,10 +665,10 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -689,10 +676,10 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -700,10 +687,10 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -711,10 +698,10 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -722,10 +709,10 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -733,10 +720,10 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -744,10 +731,10 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -755,10 +742,10 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -769,7 +756,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -777,10 +764,10 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -788,10 +775,10 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -799,10 +786,10 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -810,10 +797,10 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -821,238 +808,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47">
-        <v>17</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1061,148 +817,98 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10">
-        <v>251</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -1211,50 +917,50 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>1350</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
